--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\WURI - UGP\Mosip\v1.2\Master-data_Mosip1.2._FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{653659A7-6A93-4ABF-B1D9-24FB02CD9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F69313-1758-457F-8E75-EEDB1794338E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>lang_code</t>
   </si>
@@ -123,15 +123,9 @@
     <t>Guinée</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>(GTM+00:00)</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
     <t>9.5065745</t>
   </si>
   <si>
@@ -142,6 +136,15 @@
   </si>
   <si>
     <t>Immeuble Yansané</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>GN</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,39 +528,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -642,22 +648,22 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -684,16 +690,19 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F69313-1758-457F-8E75-EEDB1794338E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D9D00E-B747-4243-AA8B-BE88BB17D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>lang_code</t>
   </si>
@@ -96,73 +96,85 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
-    <t>0:15:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
     <t>Centre Conakry</t>
   </si>
   <si>
-    <t>Guinée</t>
-  </si>
-  <si>
     <t>(GTM+00:00)</t>
   </si>
   <si>
-    <t>9.5065745</t>
-  </si>
-  <si>
-    <t>-13.7093656</t>
-  </si>
-  <si>
     <t>4e Avenue, Kaloum</t>
   </si>
   <si>
-    <t>Immeuble Yansané</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
     <t>eff_dtimes</t>
   </si>
   <si>
     <t>GN</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>Immeuble YansanÃ©</t>
+  </si>
+  <si>
+    <t>GuinÃ©e</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>620 02 03 06</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>Electronic city</t>
+  </si>
+  <si>
+    <t>(GTM+01:00) CENTRAL EUROPEAN TIME</t>
+  </si>
+  <si>
+    <t>avanish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -174,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -182,38 +194,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,181 +520,1021 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="22.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="18" width="16.36328125" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="16.54296875" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>38</v>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H2">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>45079.578855590276</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>45079.578880173613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H3">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z3">
+        <v>1103</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>45082.240839444443</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>45082.240839444443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H4">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>39</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="Y4" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z4">
+        <v>1103</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>45082.241915590275</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>45082.241917893516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H5">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O5" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P5" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z5">
+        <v>1103</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>45082.24204675926</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>45082.242046782405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H6">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="P6" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q6" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z6">
+        <v>1103</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>45082.242474467595</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>45082.242474467595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H7">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y7" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z7">
+        <v>1103</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>45117.646293958336</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>45117.646294039354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>9.5065744999999993</v>
+      </c>
+      <c r="H8">
+        <v>-13.7093656</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
+      <c r="Y8" s="4">
+        <v>45079.578327557872</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>45117.647677222223</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>45117.647679490743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>76.658100000000005</v>
+      </c>
+      <c r="H9">
+        <v>22.4756</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>9866992247</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>45134.419516666669</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>45134.419516666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>76.658100000000005</v>
+      </c>
+      <c r="H10">
+        <v>22.4756</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>9866992247</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>45134.419516666669</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>45134.41974578704</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>45134.41974578704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>76.658100000000005</v>
+      </c>
+      <c r="H11">
+        <v>22.4756</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>9866992247</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="S11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>45134.419516666669</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>45134.428344386572</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>45134.428345381944</v>
       </c>
     </row>
   </sheetData>
